--- a/InputDoc/Evap_Data.xlsx
+++ b/InputDoc/Evap_Data.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/ACHP/ACHP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/ACHP/InputDoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="80" yWindow="440" windowWidth="28720" windowHeight="17620" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="definition" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">301=user defined, 302 = circuited tube pattern, 303 = single finned tube </t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>fin conductance</t>
-  </si>
-  <si>
-    <t>right end position</t>
   </si>
   <si>
     <t>Evaporator</t>
@@ -175,7 +172,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,22 +450,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>301</v>
       </c>
       <c r="B2" t="s">
@@ -564,7 +563,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>6</v>
       </c>
       <c r="D14" t="s">
@@ -572,7 +571,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>12</v>
       </c>
       <c r="D15" t="s">
@@ -596,7 +595,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>0.36230000000000001</v>
       </c>
       <c r="C18" t="s">
@@ -604,7 +603,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="D19" t="s">
@@ -612,7 +611,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="D20" t="s">
@@ -620,7 +619,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="D21" t="s">
@@ -628,7 +627,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="D22" t="s">
@@ -644,7 +643,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="D24" t="s">
@@ -652,7 +651,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>0</v>
       </c>
       <c r="D25" t="s">
@@ -660,7 +659,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="D26" t="s">
@@ -668,7 +667,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="D27" t="s">
@@ -676,7 +675,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -684,7 +683,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="C29" t="s">
@@ -692,7 +691,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="D30" t="s">
@@ -700,7 +699,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="D31" t="s">
@@ -708,7 +707,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>6</v>
       </c>
       <c r="D32" t="s">
@@ -716,7 +715,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="D33" t="s">
@@ -724,7 +723,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="D34" t="s">
@@ -732,7 +731,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="D35" t="s">
@@ -740,7 +739,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="D36" t="s">
@@ -748,7 +747,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="D37" t="s">
@@ -756,7 +755,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>400</v>
       </c>
       <c r="D38" t="s">
@@ -764,19 +763,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>237</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>-256</v>
-      </c>
-      <c r="D40" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
